--- a/cjisthecat/evidence.xlsx
+++ b/cjisthecat/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>TxHash</t>
   </si>
@@ -73,24 +73,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -137,13 +119,64 @@
   </si>
   <si>
     <t>cjcat#2713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9B097670E37575B228FA2EE39EE19E61209A9701D762738218367336972E1D8
+</t>
+  </si>
+  <si>
+    <t>cjisthecatnft</t>
+  </si>
+  <si>
+    <t>2044B9C837799A84389C58D41657AC77C91AAFE852AE2CDE41DB5E0614018A14</t>
+  </si>
+  <si>
+    <t>nft01</t>
+  </si>
+  <si>
+    <t>nft02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCCB8273CB9D56C1AED5A52DC3485E9A0873C0C76EDE33F50F880F6B772271A8
+</t>
+  </si>
+  <si>
+    <t>juno15egsn8u8q887t3aewzklyscv6q0ugcqx60zyr48qv99eupvs29sqws6agq</t>
+  </si>
+  <si>
+    <t>34289CCA5E6B5E03511F8A1103B8EB26D091FF409340E01B7A45E756D69E16D6</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7AD2F2B755E32F5AABBAD4D41EC9FEE55D67725492526E1DD5E21485E5468E1F
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/90C376D6BF997E4A44D2F8B687834555C110AD0022BCF43557B7526A55E79713
+</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3E7E8A476F0630DE5552CDC3B9A10A37F43523001D0CB3A8BE5E4D4A9A20A102
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3F1F5FE8E8D82AFE8F7FD7980F8165B91E41F4DF07B827B14D80538DCE035D58
+</t>
+  </si>
+  <si>
+    <t>ibc/90C376D6BF997E4A44D2F8B687834555C110AD0022BCF43557B7526A55E79713</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +189,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="4">
@@ -210,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -225,6 +265,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -548,54 +595,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1089,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1058,11 +1107,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1307,9 +1356,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1330,17 +1381,29 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.2" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1351,7 +1414,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1376,16 +1441,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1465,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1424,17 +1491,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1516,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1473,17 +1542,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1567,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1523,17 +1594,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/cjisthecat/evidence.xlsx
+++ b/cjisthecat/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
   <si>
     <t>TxHash</t>
   </si>
@@ -52,25 +52,10 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
   </si>
   <si>
     <t>TeamName</t>
@@ -170,6 +155,163 @@
   </si>
   <si>
     <t>ibc/90C376D6BF997E4A44D2F8B687834555C110AD0022BCF43557B7526A55E79713</t>
+  </si>
+  <si>
+    <t>ibc/ED39EBEF3CFA80BC048B0D37B0C245DB78ACCB343B0A0485C7DC93590CE53EB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjnft227
+</t>
+  </si>
+  <si>
+    <t>ibc/53432FFDFE3293ADA94A5A8318F24FF0EE1A7FD8AF9065AE1DDF124D0DFFCCC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjnft228
+</t>
+  </si>
+  <si>
+    <t>ibc/D66132D8DD2D1A0BBC1AE29735007EE1413EE4E1477D39CA1CB1400C5B1B62AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjnft229
+</t>
+  </si>
+  <si>
+    <t>ibc/3ADE52C66F56B626D84CCE99A9D757FD47515F085599F58DE46258916938C877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjnft230
+</t>
+  </si>
+  <si>
+    <t>ibc/F8AFD457AA3F72D610856ACBD1E9B1FF7DA2DBE63BD71D69C26C72857C216C92</t>
+  </si>
+  <si>
+    <t>cjnft231</t>
+  </si>
+  <si>
+    <t>ibc/5F287DFAF81551383088082F97798710C431FEC37EE0D069F02BDCE64E1EE472</t>
+  </si>
+  <si>
+    <t>cjnft232</t>
+  </si>
+  <si>
+    <t>5EAC57469208F76C0FBC6706518DA6A74151E87D0EB1B07692E07E024CFC25E9</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>ED8EE9A2D7809994897A37E7EDC20383C33778CD4AEA76CCF8A9732B7939C01A</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>0494BD3CA599CEB0BB63C1C2B945220C47AB25D91C80B9C3DC0C69360AB76847</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>5677C7915C4AA4194604A0FCEAC430F60B9F18C9F7D2B71FF09EF4B6F7C6A185</t>
+  </si>
+  <si>
+    <t>0DC1753CBCC98E0C8C4C0D2832946CF7B4A8CA8FBA6415AEB76D66F03BF71CCF</t>
+  </si>
+  <si>
+    <t>10DA9DDE2AD7BFDF9D1F5921A45F42A949BECB5F55125947BF2C951265749462</t>
+  </si>
+  <si>
+    <t>738B60B8B69E69FFD2F0031C49481F0B2AEB8FDBDF9FB9C9C1FFEABE2EA1440F</t>
+  </si>
+  <si>
+    <t>F48F8B4D4DA9FF91DA07A9E12A4ABA82D9D0F7D418FE0D3DE9D067A50D060F89</t>
+  </si>
+  <si>
+    <t>74F80D3454ECA5B382040871240052CE554F42EAD07146FA3049A50E6E58F017</t>
+  </si>
+  <si>
+    <t>4905EB64AB9C701F5FC9125CC2DE25E4B43F382D992E1602E519EED1E927EF10</t>
+  </si>
+  <si>
+    <t>BBB4D0CFF1E2F96D734B744B6FDFFD7BD3198BD638169206841BBE0114816034</t>
+  </si>
+  <si>
+    <t>29CA7B6D7CCD6D3EFF996324231171D6A4386D6C1DCC43301B80C25F7AA57B3D</t>
+  </si>
+  <si>
+    <t>8CAFDB04952FD9A3859B4194E6A399ED89190F4C67C7C99EAB017307AAAE78A3</t>
+  </si>
+  <si>
+    <t>B60A6503E2F0401009591025CE46FCA191593E75379D19845BB77F786B2A39EE</t>
+  </si>
+  <si>
+    <t>D746DBC699FF3EB83173A9B4B66299B89434B1ECABDC194250BE83B579EF1CD1</t>
+  </si>
+  <si>
+    <t>BAC9F6B4CCA60F0754BA1E58E9E579DD37B9B5A602FB74FB244EF539608F577E</t>
+  </si>
+  <si>
+    <t>E96BCAA6F3FF5D0D94F32669AE7ACA399199319455EF3900627D573E4D5C669D</t>
+  </si>
+  <si>
+    <t>2469E56DE34F4788D3230BB33152849A98D57C419F595E43676618E069B9E840</t>
+  </si>
+  <si>
+    <t>492BADE8F6145A1F724A64CBFCDA0EBA2C8402BE5CC911570F61A735D269140C</t>
+  </si>
+  <si>
+    <t>9BF778E4198A7CC9D9F485C0F8AEB377D7C8135D367BDB17C740344987DDC00C</t>
+  </si>
+  <si>
+    <t>DAECD7EFA3729987B41A1203F637838552E9ADA8BB762E13E29E2AB40B0A73E4</t>
+  </si>
+  <si>
+    <t>A820ED7B1E4E03D31BA4BABD541BCE24F1C4A43C0D51ACEA95DA94476B43BD97</t>
+  </si>
+  <si>
+    <t>D0648DAC7F6CAEB7678EF42ADC8EAA56E81E2E231A0BA441DE6E7F3CDE81E99C</t>
+  </si>
+  <si>
+    <t>88F408DE62F87BA2997F7689B9203929D102771B548D35FBDEDCA01D00F93EC9</t>
+  </si>
+  <si>
+    <t>42012BB3F4DDBBF262D8E75517E30B2952C60814B66CDEC6EDCEB0B5A1B64C98</t>
+  </si>
+  <si>
+    <t>B6D78A112DB366F60024A0400C3B6AF4B00D50D2CA94E7068632539FB536BABC</t>
+  </si>
+  <si>
+    <t>E628E66176C4ED26BC981EBF58CB3BB53E3C997A304B86C54E44BB21CCDC0919</t>
+  </si>
+  <si>
+    <t>47AD7F5C02D5A00F1147D3A551F128FE6D6D129F15941734B8D2768FD4B33F79</t>
+  </si>
+  <si>
+    <t>9BF3E41F4E5E5CE08A5B93B003E9A59FBA1669227DACCB4212E8BB09C22AD8C4</t>
+  </si>
+  <si>
+    <t>83EB5A95507CC9C2B80090511B20FDD935E8DA3FA3AB981D8D76698D8A9A7E23</t>
+  </si>
+  <si>
+    <t>50B8BF5702EF27A38FF051B0EF81D61B687E9AB6C78869093D37BFE4517FCA17</t>
+  </si>
+  <si>
+    <t>1FFD5F10621A4AEEC9A97D1F60E274C2ACFCDC79E2FE0C1CB76FD6B3A4C90A1F</t>
+  </si>
+  <si>
+    <t>A0B34002AB041C04C77A2404C66835EAC1CFF0F106D595DA27411C35989ACA45</t>
+  </si>
+  <si>
+    <t>E32B4D4164E761FE0810C0808207618B48157735635262E9C93E7DAC19862491</t>
+  </si>
+  <si>
+    <t>B847810ED9E5A7B7FF4D696FB31B834D745054427230DAAD2755A06E25887C82</t>
+  </si>
+  <si>
+    <t>09FA9B1520A061668D2E5A89FA7BC9159498883F4497B22D750392AC0678F008</t>
   </si>
 </sst>
 </file>
@@ -595,54 +737,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +799,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -667,18 +811,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +837,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -703,18 +849,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +875,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -739,18 +887,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +913,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -775,18 +925,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -799,9 +949,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -819,26 +971,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -847,9 +1012,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -867,23 +1034,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -895,9 +1074,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -915,23 +1096,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -943,9 +1136,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -963,26 +1158,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>66</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -991,9 +1199,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1011,23 +1221,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1039,9 +1261,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1059,23 +1283,35 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,15 +1339,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1124,9 +1360,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1144,23 +1382,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1172,9 +1438,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1192,23 +1460,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1373,32 +1669,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1430,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1441,16 +1737,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1481,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1492,16 +1788,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1532,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1543,17 +1839,17 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1567,7 +1863,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1584,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1595,16 +1891,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1915,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1629,18 +1927,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1953,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1665,18 +1965,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/cjisthecat/evidence.xlsx
+++ b/cjisthecat/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="20"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" firstSheet="2" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,21 +32,16 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>TxHash</t>
-  </si>
-  <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
   <si>
     <t>ChainID</t>
@@ -312,6 +307,36 @@
   </si>
   <si>
     <t>09FA9B1520A061668D2E5A89FA7BC9159498883F4497B22D750392AC0678F008</t>
+  </si>
+  <si>
+    <t>6D8BCB5A81094555B2961244B2016268DF2F3E72D8287EA8F82FF1EB3F35EE1D</t>
+  </si>
+  <si>
+    <t>B6FC07C81CA5B7C5F96E1C24A27368DECE92E797FF943BC02E6B5814168C2BA1</t>
+  </si>
+  <si>
+    <t>B93B712FE9E7A568C1E24EE88D8321B5613138D34C5FD9238C2B554A4FC8753C</t>
+  </si>
+  <si>
+    <t>204E28F94A51C70D45AFF607B47AD6AF9FFDD7224A96278314683EA8AD4AF947</t>
+  </si>
+  <si>
+    <t>6AB0EE2DC9A2EA521E523EC75AB51E560BBC0DE4158EE4C8A2DE6078515743C0</t>
+  </si>
+  <si>
+    <t>6856AB64A1B202FA30390A59E5011677394AF3CA4A9BE57A2462D1A391DB0DFC</t>
+  </si>
+  <si>
+    <t>D43157FF37DAA6FDDE36398C626E90FD4F75DEBF5C958ECCE97293D42AF4CB0A</t>
+  </si>
+  <si>
+    <t>BAA2B49BA183E77890FF173EB5BCB84E4C10A20C0F7C1544D84841ABED213F6A</t>
+  </si>
+  <si>
+    <t>62633056C6C7D68FE5139D62790DCA612E449FF05F9C761B42EC80614F75B87E</t>
+  </si>
+  <si>
+    <t>9C101C458F9A22074382A851222856ACFAC4236EC1C0C1F49AB1B1C03126AF0C</t>
   </si>
 </sst>
 </file>
@@ -392,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -415,6 +440,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,54 +763,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +837,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -830,7 +894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -849,17 +913,17 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -868,7 +932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -876,7 +940,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -887,10 +951,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -906,15 +970,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -925,10 +989,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -939,12 +1003,37 @@
         <v>48</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -952,7 +1041,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -966,20 +1055,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>52</v>
@@ -987,15 +1076,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>52</v>
@@ -1003,11 +1092,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1015,7 +1103,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1029,47 +1117,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1077,7 +1165,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1091,47 +1179,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1139,7 +1228,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1153,28 +1242,90 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>52</v>
@@ -1182,27 +1333,63 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1216,20 +1403,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>52</v>
@@ -1237,192 +1502,31 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>52</v>
@@ -1433,84 +1537,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -1518,7 +1544,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1532,12 +1560,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1580,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1566,12 +1596,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1616,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1600,12 +1632,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1634,16 +1666,47 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1669,32 +1732,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1726,27 +1789,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1777,27 +1840,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1828,27 +1891,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1880,27 +1943,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1927,10 +1990,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -1944,42 +2045,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>